--- a/SGSST/SG-SST AÑO 2023/Matriz de Peligros/Matriz de Riesgo SST 2023.xlsx
+++ b/SGSST/SG-SST AÑO 2023/Matriz de Peligros/Matriz de Riesgo SST 2023.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dayana Git\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\Matriz de Peligros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\Matriz de Peligros\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72820CF2-1A48-4EE7-83DD-B37DA27E3786}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="631"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proceso Excavacion" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Proceso Excavacion'!$A$1:$AA$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Proceso Excavacion'!$A$1:$AA$22</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="167">
   <si>
     <t>SISTEMA DE GESTIÓN DE LA SEGURIDAD Y SALUD EN EL TRABAJO</t>
   </si>
@@ -510,12 +516,33 @@
   </si>
   <si>
     <t>Pausas activas</t>
+  </si>
+  <si>
+    <t>Exposición a contagio por COVID</t>
+  </si>
+  <si>
+    <t>Afectación pulmonar</t>
+  </si>
+  <si>
+    <t>Protocolo de Bioseguridad por COVID</t>
+  </si>
+  <si>
+    <t>Vacunación. Protección Respiratoria. Todo Trabajador que presenta cuadro gripal debe utilizar tapabocas.</t>
+  </si>
+  <si>
+    <t>Afectación a nivel pulmonar</t>
+  </si>
+  <si>
+    <t>Todo trabajador que presenta cuadros gripales debe utilizar el tapabocas</t>
+  </si>
+  <si>
+    <t>Tapabocas (Cuando lo requiera)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,7 +588,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -840,11 +867,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -922,6 +1038,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -931,6 +1050,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -944,61 +1105,109 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1362,14 +1571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,101 +1606,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="30" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="AA1" s="30"/>
+      <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="AA2" s="30"/>
+      <c r="AA2" s="45"/>
     </row>
     <row r="3" spans="1:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AA3" s="30"/>
+      <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1506,115 +1715,115 @@
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="32" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="O5" s="34" t="s">
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="O5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="31">
+      <c r="P5" s="49"/>
+      <c r="Q5" s="46">
         <v>45009</v>
       </c>
-      <c r="R5" s="32"/>
-      <c r="T5" s="35" t="s">
+      <c r="R5" s="47"/>
+      <c r="T5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="35"/>
-      <c r="V5" s="36" t="s">
+      <c r="U5" s="37"/>
+      <c r="V5" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:27" s="6" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37" t="s">
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
       <c r="S8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="37" t="s">
+      <c r="T8" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37" t="s">
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="38"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="44"/>
     </row>
     <row r="9" spans="1:27" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="35"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="9" t="s">
         <v>21</v>
       </c>
@@ -1674,19 +1883,19 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="29" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -1753,11 +1962,11 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1783,7 +1992,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" ref="N11:N21" si="0">L11*M11</f>
+        <f t="shared" ref="N11:N22" si="0">L11*M11</f>
         <v>8</v>
       </c>
       <c r="O11" s="11" t="s">
@@ -1793,7 +2002,7 @@
         <v>60</v>
       </c>
       <c r="Q11" s="11">
-        <f t="shared" ref="Q11:Q21" si="1">+N11*P11</f>
+        <f t="shared" ref="Q11:Q22" si="1">+N11*P11</f>
         <v>480</v>
       </c>
       <c r="R11" s="11" t="s">
@@ -1822,11 +2031,11 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="11" t="s">
         <v>59</v>
       </c>
@@ -1889,11 +2098,11 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="11" t="s">
         <v>60</v>
       </c>
@@ -1958,11 +2167,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="11" t="s">
         <v>76</v>
       </c>
@@ -2025,11 +2234,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="11" t="s">
         <v>82</v>
       </c>
@@ -2094,11 +2303,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="11" t="s">
         <v>89</v>
       </c>
@@ -2159,11 +2368,11 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="240" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="11" t="s">
         <v>90</v>
       </c>
@@ -2224,11 +2433,11 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="11" t="s">
         <v>101</v>
       </c>
@@ -2291,11 +2500,11 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="11" t="s">
         <v>149</v>
       </c>
@@ -2356,11 +2565,11 @@
       <c r="AA19" s="12"/>
     </row>
     <row r="20" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="11" t="s">
         <v>111</v>
       </c>
@@ -2420,230 +2629,240 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13">
+    <row r="21" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="52">
         <v>2</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="52">
         <v>4</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="O21" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="52">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="52">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R21" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="T21" s="53">
+        <v>1</v>
+      </c>
+      <c r="U21" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="V21" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="X21" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y21" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z21" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA21" s="54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13">
+        <v>2</v>
+      </c>
+      <c r="M22" s="13">
+        <v>4</v>
+      </c>
+      <c r="N22" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="13">
         <v>10</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q22" s="13">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="R22" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="S22" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T22" s="16">
         <v>1</v>
       </c>
-      <c r="U21" s="13" t="s">
+      <c r="U22" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="V21" s="13" t="s">
+      <c r="V22" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13" t="s">
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="AA21" s="14" t="s">
+      <c r="AA22" s="14" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="17">
-        <v>6</v>
-      </c>
-      <c r="M22" s="17">
-        <v>2</v>
-      </c>
-      <c r="N22" s="17">
-        <f t="shared" ref="N22:N23" si="4">L22*M22</f>
-        <v>12</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="P22" s="17">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="17">
-        <f t="shared" ref="Q22:Q23" si="5">+N22*P22</f>
-        <v>300</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="S22" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="T22" s="18">
-        <v>1</v>
-      </c>
-      <c r="U22" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="V22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA22" s="19" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="11">
+      <c r="A23" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="17">
+        <v>6</v>
+      </c>
+      <c r="M23" s="17">
         <v>2</v>
       </c>
-      <c r="M23" s="11">
-        <v>4</v>
-      </c>
-      <c r="N23" s="11">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P23" s="11">
+      <c r="N23" s="17">
+        <f t="shared" ref="N23:N24" si="4">L23*M23</f>
+        <v>12</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" s="17">
         <v>25</v>
       </c>
-      <c r="Q23" s="11">
-        <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="R23" s="11" t="s">
+      <c r="Q23" s="17">
+        <f t="shared" ref="Q23:Q24" si="5">+N23*P23</f>
+        <v>300</v>
+      </c>
+      <c r="R23" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="S23" s="11" t="s">
+      <c r="S23" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="T23" s="15">
+      <c r="T23" s="18">
         <v>1</v>
       </c>
-      <c r="U23" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA23" s="12" t="s">
-        <v>73</v>
+      <c r="U23" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V23" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA23" s="19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="28"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L24" s="11">
         <v>2</v>
@@ -2652,18 +2871,18 @@
         <v>4</v>
       </c>
       <c r="N24" s="11">
-        <f>L24*M24</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>121</v>
       </c>
       <c r="P24" s="11">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="Q24" s="11">
-        <f>+N24*P24</f>
-        <v>480</v>
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>122</v>
@@ -2675,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="V24" s="11" t="s">
         <v>48</v>
@@ -2684,31 +2903,31 @@
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AA24" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="28"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="11" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="L25" s="11">
         <v>2</v>
@@ -2717,30 +2936,30 @@
         <v>4</v>
       </c>
       <c r="N25" s="11">
-        <f t="shared" ref="N25:N30" si="6">L25*M25</f>
+        <f>L25*M25</f>
         <v>8</v>
       </c>
       <c r="O25" s="11" t="s">
         <v>121</v>
       </c>
       <c r="P25" s="11">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="Q25" s="11">
         <f>+N25*P25</f>
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T25" s="15">
         <v>1</v>
       </c>
       <c r="U25" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="V25" s="11" t="s">
         <v>48</v>
@@ -2748,31 +2967,33 @@
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
+      <c r="Z25" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="AA25" s="12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="28"/>
+    <row r="26" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="11" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="L26" s="11">
         <v>2</v>
       </c>
@@ -2780,7 +3001,7 @@
         <v>4</v>
       </c>
       <c r="N26" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N26:N32" si="6">L26*M26</f>
         <v>8</v>
       </c>
       <c r="O26" s="11" t="s">
@@ -2790,7 +3011,7 @@
         <v>10</v>
       </c>
       <c r="Q26" s="11">
-        <f t="shared" ref="Q26:Q30" si="7">+N26*P26</f>
+        <f>+N26*P26</f>
         <v>80</v>
       </c>
       <c r="R26" s="11" t="s">
@@ -2803,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="V26" s="11" t="s">
         <v>48</v>
@@ -2811,31 +3032,29 @@
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-      <c r="Z26" s="11" t="s">
-        <v>119</v>
-      </c>
+      <c r="Z26" s="11"/>
       <c r="AA26" s="12" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="28"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11">
@@ -2852,23 +3071,23 @@
         <v>121</v>
       </c>
       <c r="P27" s="11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="11">
-        <f t="shared" si="7"/>
-        <v>200</v>
+        <f t="shared" ref="Q27:Q32" si="7">+N27*P27</f>
+        <v>80</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T27" s="15">
         <v>1</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V27" s="11" t="s">
         <v>48</v>
@@ -2877,30 +3096,30 @@
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
       <c r="Z27" s="11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="AA27" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="28"/>
+    <row r="28" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="11" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11">
@@ -2933,37 +3152,39 @@
         <v>1</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
+      <c r="Z28" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="AA28" s="12" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="28"/>
+    <row r="29" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11">
@@ -2980,17 +3201,17 @@
         <v>121</v>
       </c>
       <c r="P29" s="11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Q29" s="11">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T29" s="15">
         <v>1</v>
@@ -3004,236 +3225,246 @@
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
-      <c r="Z29" s="11" t="s">
-        <v>145</v>
-      </c>
+      <c r="Z29" s="11"/>
       <c r="AA29" s="12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
+    <row r="30" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H30" s="13" t="s">
+      <c r="F30" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13">
+      <c r="I30" s="11"/>
+      <c r="J30" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11">
         <v>2</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="11">
         <v>4</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="11">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="O30" s="13" t="s">
+      <c r="O30" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="11">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="T30" s="15">
+        <v>1</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA30" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="55"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="J31" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="K31" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="L31" s="52">
+        <v>2</v>
+      </c>
+      <c r="M31" s="52">
+        <v>4</v>
+      </c>
+      <c r="N31" s="52">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="O31" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="P31" s="52">
         <v>25</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q31" s="52">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="R30" s="13" t="s">
+      <c r="R31" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S30" s="13" t="s">
+      <c r="S31" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="T30" s="16">
+      <c r="T31" s="53">
         <v>1</v>
       </c>
-      <c r="U30" s="13" t="s">
+      <c r="U31" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="V31" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="W31" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="X31" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y31" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z31" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA31" s="54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13">
+        <v>2</v>
+      </c>
+      <c r="M32" s="13">
+        <v>4</v>
+      </c>
+      <c r="N32" s="13">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P32" s="13">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="13">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="T32" s="16">
+        <v>1</v>
+      </c>
+      <c r="U32" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="V30" s="13" t="s">
+      <c r="V32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13" t="s">
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="AA30" s="14"/>
+      <c r="AA32" s="14"/>
     </row>
-    <row r="31" spans="1:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+    <row r="33" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B33" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C33" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D33" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E33" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F33" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G33" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H33" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21" t="s">
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="L31" s="21">
-        <v>2</v>
-      </c>
-      <c r="M31" s="21">
-        <v>4</v>
-      </c>
-      <c r="N31" s="21">
-        <f t="shared" ref="N31:N35" si="8">L31*M31</f>
-        <v>8</v>
-      </c>
-      <c r="O31" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="P31" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="21">
-        <f>+N31*P31</f>
-        <v>80</v>
-      </c>
-      <c r="R31" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="S31" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="T31" s="22">
-        <v>1</v>
-      </c>
-      <c r="U31" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="V31" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21">
-        <v>2</v>
-      </c>
-      <c r="M32" s="21">
-        <v>4</v>
-      </c>
-      <c r="N32" s="21">
-        <f t="shared" ref="N32:N33" si="9">L32*M32</f>
-        <v>8</v>
-      </c>
-      <c r="O32" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="P32" s="21">
-        <v>25</v>
-      </c>
-      <c r="Q32" s="21">
-        <f t="shared" ref="Q32:Q33" si="10">+N32*P32</f>
-        <v>200</v>
-      </c>
-      <c r="R32" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="S32" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="T32" s="22">
-        <v>1</v>
-      </c>
-      <c r="U32" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="V32" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="K33" s="21"/>
       <c r="L33" s="21">
         <v>2</v>
       </c>
@@ -3241,30 +3472,30 @@
         <v>4</v>
       </c>
       <c r="N33" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N33:N38" si="8">L33*M33</f>
         <v>8</v>
       </c>
       <c r="O33" s="21" t="s">
         <v>121</v>
       </c>
       <c r="P33" s="21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Q33" s="21">
-        <f t="shared" si="10"/>
-        <v>200</v>
+        <f>+N33*P33</f>
+        <v>80</v>
       </c>
       <c r="R33" s="21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S33" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T33" s="22">
         <v>1</v>
       </c>
       <c r="U33" s="21" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V33" s="21" t="s">
         <v>48</v>
@@ -3272,33 +3503,29 @@
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
       <c r="Y33" s="21"/>
-      <c r="Z33" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA33" s="23"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="23" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>48</v>
-      </c>
+    <row r="34" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="21" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="K34" s="21"/>
       <c r="L34" s="21">
@@ -3308,134 +3535,325 @@
         <v>4</v>
       </c>
       <c r="N34" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N34:N35" si="9">L34*M34</f>
         <v>8</v>
       </c>
       <c r="O34" s="21" t="s">
         <v>121</v>
       </c>
       <c r="P34" s="21">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Q34" s="21">
-        <f t="shared" ref="Q34:Q35" si="11">+N34*P34</f>
-        <v>80</v>
+        <f t="shared" ref="Q34:Q35" si="10">+N34*P34</f>
+        <v>200</v>
       </c>
       <c r="R34" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T34" s="22">
         <v>1</v>
       </c>
       <c r="U34" s="21" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="V34" s="21" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
       <c r="Y34" s="21"/>
-      <c r="Z34" s="21" t="s">
-        <v>119</v>
-      </c>
+      <c r="Z34" s="21"/>
       <c r="AA34" s="23" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="24" t="s">
+    <row r="35" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21">
+        <v>2</v>
+      </c>
+      <c r="M35" s="21">
+        <v>4</v>
+      </c>
+      <c r="N35" s="21">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P35" s="21">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="21">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="R35" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="S35" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="T35" s="22">
+        <v>1</v>
+      </c>
+      <c r="U35" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="V35" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24">
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA35" s="23"/>
+    </row>
+    <row r="36" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21">
         <v>2</v>
       </c>
-      <c r="M35" s="24">
+      <c r="M36" s="21">
         <v>4</v>
       </c>
-      <c r="N35" s="24">
+      <c r="N36" s="21">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="O35" s="24" t="s">
+      <c r="O36" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="P35" s="24">
+      <c r="P36" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="21">
+        <f t="shared" ref="Q36:Q38" si="11">+N36*P36</f>
+        <v>80</v>
+      </c>
+      <c r="R36" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="S36" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="T36" s="22">
+        <v>1</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="V36" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA36" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="K37" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="L37" s="52">
+        <v>2</v>
+      </c>
+      <c r="M37" s="52">
+        <v>4</v>
+      </c>
+      <c r="N37" s="52">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="O37" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="P37" s="52">
         <v>25</v>
       </c>
-      <c r="Q35" s="24">
+      <c r="Q37" s="52">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="R35" s="24" t="s">
+      <c r="R37" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S35" s="24" t="s">
+      <c r="S37" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="T35" s="25">
+      <c r="T37" s="53">
         <v>1</v>
       </c>
-      <c r="U35" s="24" t="s">
+      <c r="U37" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="V37" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="W37" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="X37" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y37" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z37" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA37" s="54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24">
+        <v>2</v>
+      </c>
+      <c r="M38" s="24">
+        <v>4</v>
+      </c>
+      <c r="N38" s="24">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="O38" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="P38" s="24">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="24">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="R38" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="S38" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="T38" s="25">
+        <v>1</v>
+      </c>
+      <c r="U38" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="V35" s="24" t="s">
+      <c r="V38" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24" t="s">
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="AA35" s="26" t="s">
+      <c r="AA38" s="26" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="C22:C30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="D22:D30"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:AA8"/>
+  <mergeCells count="41">
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E23:E32"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B10:B22"/>
+    <mergeCell ref="C10:C22"/>
+    <mergeCell ref="D10:D22"/>
+    <mergeCell ref="E10:E22"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="Z3:AA3"/>
@@ -3449,30 +3867,45 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="T5:U5"/>
     <mergeCell ref="V5:AA5"/>
-    <mergeCell ref="E22:E30"/>
-    <mergeCell ref="A10:A21"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="C10:C21"/>
-    <mergeCell ref="D10:D21"/>
-    <mergeCell ref="E10:E21"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C23:C32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="D23:D32"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L34:L35 L10:L28 L31:L32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L31 L10:L29 L33:L34 L36:L38" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"10, 6, 2, 0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M34:M35 M10:M28 M31:M32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M31 M10:M29 M33:M34 M36:M38" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"4, 3, 2, 1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P34:P35 P10:P28 P31:P32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P31 P10:P29 P33:P34 P36:P38" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"100, 60, 25, 10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10:S28 S30:S35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10:S29 S31:S38" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"No Aceptable, Aceptable con control especifico, Mejorable, Aceptable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O38" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Muy Alto, Alto, Medio,Bajo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10:R35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10:R38" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"I, II, III, IV"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3483,7 +3916,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{4DC6E855-C3EA-4D5F-874B-8116C8A3A597}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{4DC6E855-C3EA-4D5F-874B-8116C8A3A597}">
             <xm:f>NOT(ISERROR(SEARCH(Hoja1!$A$1,S9)))</xm:f>
             <xm:f>Hoja1!$A$1</xm:f>
             <x14:dxf>
@@ -3498,10 +3931,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>S9:S90</xm:sqref>
+          <xm:sqref>S9:S30 S32:S36 S38:S93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{DE88D9D8-356C-4D66-A63D-B253901AAC65}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{DE88D9D8-356C-4D66-A63D-B253901AAC65}">
             <xm:f>NOT(ISERROR(SEARCH(Hoja1!$C$1,S10)))</xm:f>
             <xm:f>Hoja1!$C$1</xm:f>
             <x14:dxf>
@@ -3516,7 +3949,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="2" operator="endsWith" id="{9B47E2CF-D8EC-499C-AF99-E461E56131AD}">
+          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{9B47E2CF-D8EC-499C-AF99-E461E56131AD}">
             <xm:f>RIGHT(S10,LEN(Hoja1!$B$1))=Hoja1!$B$1</xm:f>
             <xm:f>Hoja1!$B$1</xm:f>
             <x14:dxf>
@@ -3531,7 +3964,109 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>S10:S112</xm:sqref>
+          <xm:sqref>S10:S30 S32:S36 S38:S115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{DC7847DE-A2D2-4934-8281-C6E0BF5ACE31}">
+            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$A$1,S31)))</xm:f>
+            <xm:f>Hoja1!$A$1</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>S31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{4059B859-EA40-475B-A8AD-0493CC43BBFD}">
+            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$C$1,S31)))</xm:f>
+            <xm:f>Hoja1!$C$1</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="5" operator="endsWith" id="{5499E0C4-46FF-4A90-84A5-261BDE9A018B}">
+            <xm:f>RIGHT(S31,LEN(Hoja1!$B$1))=Hoja1!$B$1</xm:f>
+            <xm:f>Hoja1!$B$1</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>S31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{A8BFA9E0-0BB9-4AF8-B1AC-CA34AF6941D4}">
+            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$A$1,S37)))</xm:f>
+            <xm:f>Hoja1!$A$1</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>S37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{E8DC6BE2-8B1A-4405-8D30-2201AD77683D}">
+            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$C$1,S37)))</xm:f>
+            <xm:f>Hoja1!$C$1</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2" operator="endsWith" id="{10110C2B-3D75-41F8-BD2F-1F78A6F91C50}">
+            <xm:f>RIGHT(S37,LEN(Hoja1!$B$1))=Hoja1!$B$1</xm:f>
+            <xm:f>Hoja1!$B$1</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>S37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3540,7 +4075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SGSST/SG-SST AÑO 2023/Matriz de Peligros/Matriz de Riesgo SST 2023.xlsx
+++ b/SGSST/SG-SST AÑO 2023/Matriz de Peligros/Matriz de Riesgo SST 2023.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\Matriz de Peligros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dayana Git\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\Matriz de Peligros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72820CF2-1A48-4EE7-83DD-B37DA27E3786}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="631"/>
   </bookViews>
   <sheets>
     <sheet name="Proceso Excavacion" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Proceso Excavacion'!$A$1:$AA$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proceso Excavacion'!$A$9:$AA$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Proceso Excavacion'!$A$1:$AA$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="177">
   <si>
     <t>SISTEMA DE GESTIÓN DE LA SEGURIDAD Y SALUD EN EL TRABAJO</t>
   </si>
@@ -368,9 +368,6 @@
     <t>Supervision permanente</t>
   </si>
   <si>
-    <t>Ergonomico (Posturas inadecuadas)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adopcion de posturas sedente prolongadas indecuadas </t>
   </si>
   <si>
@@ -537,12 +534,45 @@
   </si>
   <si>
     <t>Tapabocas (Cuando lo requiera)</t>
+  </si>
+  <si>
+    <t>Presencia de tierra, terrenos sin pavimentar</t>
+  </si>
+  <si>
+    <t>Sendero peatonal pavimentado y oficina administrativa tiene baldosa</t>
+  </si>
+  <si>
+    <t>Demarcar sendero peatonal</t>
+  </si>
+  <si>
+    <t>Seguimiento ausentismo y examenes medicos ocupacionales</t>
+  </si>
+  <si>
+    <t>Biomecanico (Posturas inadecuadas)</t>
+  </si>
+  <si>
+    <t>Fenomenos Naturales</t>
+  </si>
+  <si>
+    <t>Sismo, terremoto, inundaccion, Derrumbe</t>
+  </si>
+  <si>
+    <t>Plan de prevencion, preparacion y atencion de emergencia</t>
+  </si>
+  <si>
+    <t>Capacitacion al trabajador</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Continuar con las capacitaciones a los brigadista</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -960,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1038,21 +1068,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1068,15 +1149,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1087,61 +1168,79 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1571,14 +1670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,101 +1705,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA1" s="45"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="1:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA2" s="45"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA2" s="38"/>
     </row>
     <row r="3" spans="1:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AA3" s="45"/>
+      <c r="AA3" s="38"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1715,115 +1814,115 @@
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="47" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="O5" s="49" t="s">
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="O5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="46">
+      <c r="P5" s="42"/>
+      <c r="Q5" s="39">
         <v>45009</v>
       </c>
-      <c r="R5" s="47"/>
-      <c r="T5" s="37" t="s">
+      <c r="R5" s="40"/>
+      <c r="T5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="37"/>
-      <c r="V5" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:27" s="6" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27" t="s">
+      <c r="G8" s="45"/>
+      <c r="H8" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27" t="s">
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
       <c r="S8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="T8" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27" t="s">
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="44"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="46"/>
     </row>
     <row r="9" spans="1:27" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="37"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="9" t="s">
         <v>21</v>
       </c>
@@ -1883,19 +1982,19 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="35" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -1908,10 +2007,10 @@
         <v>50</v>
       </c>
       <c r="I10" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>61</v>
@@ -1927,7 +2026,7 @@
         <v>8</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P10" s="11">
         <v>60</v>
@@ -1937,10 +2036,10 @@
         <v>480</v>
       </c>
       <c r="R10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S10" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="T10" s="15">
         <v>1</v>
@@ -1962,11 +2061,11 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1977,13 +2076,13 @@
         <v>51</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>62</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L11" s="11">
         <v>2</v>
@@ -1992,24 +2091,24 @@
         <v>4</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" ref="N11:N22" si="0">L11*M11</f>
+        <f t="shared" ref="N11:N23" si="0">L11*M11</f>
         <v>8</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P11" s="11">
         <v>60</v>
       </c>
       <c r="Q11" s="11">
-        <f t="shared" ref="Q11:Q22" si="1">+N11*P11</f>
+        <f t="shared" ref="Q11:Q23" si="1">+N11*P11</f>
         <v>480</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="T11" s="15">
         <v>1</v>
@@ -2031,11 +2130,11 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="11" t="s">
         <v>59</v>
       </c>
@@ -2046,10 +2145,10 @@
         <v>52</v>
       </c>
       <c r="I12" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>63</v>
@@ -2065,7 +2164,7 @@
         <v>8</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P12" s="11">
         <v>25</v>
@@ -2075,10 +2174,10 @@
         <v>200</v>
       </c>
       <c r="R12" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="T12" s="15">
         <v>1</v>
@@ -2098,11 +2197,11 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="11" t="s">
         <v>60</v>
       </c>
@@ -2113,10 +2212,10 @@
         <v>53</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>64</v>
@@ -2132,7 +2231,7 @@
         <v>8</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P13" s="11">
         <v>25</v>
@@ -2142,10 +2241,10 @@
         <v>200</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="T13" s="15">
         <v>1</v>
@@ -2167,11 +2266,11 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="11" t="s">
         <v>76</v>
       </c>
@@ -2182,10 +2281,10 @@
         <v>77</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>78</v>
@@ -2201,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P14" s="11">
         <v>10</v>
@@ -2211,10 +2310,10 @@
         <v>80</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T14" s="15">
         <v>1</v>
@@ -2234,11 +2333,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="11" t="s">
         <v>82</v>
       </c>
@@ -2249,10 +2348,10 @@
         <v>83</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>84</v>
@@ -2268,7 +2367,7 @@
         <v>12</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P15" s="11">
         <v>25</v>
@@ -2278,10 +2377,10 @@
         <v>300</v>
       </c>
       <c r="R15" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="T15" s="15">
         <v>1</v>
@@ -2303,11 +2402,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="11" t="s">
         <v>89</v>
       </c>
@@ -2317,11 +2416,15 @@
       <c r="H16" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="J16" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="L16" s="11">
         <v>2</v>
       </c>
@@ -2333,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P16" s="11">
         <v>25</v>
@@ -2343,10 +2446,10 @@
         <v>200</v>
       </c>
       <c r="R16" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S16" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="T16" s="15">
         <v>1</v>
@@ -2368,11 +2471,11 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="240" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="11" t="s">
         <v>90</v>
       </c>
@@ -2382,11 +2485,15 @@
       <c r="H17" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="J17" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K17" s="11"/>
+        <v>126</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="L17" s="11">
         <v>2</v>
       </c>
@@ -2398,7 +2505,7 @@
         <v>8</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P17" s="11">
         <v>25</v>
@@ -2408,10 +2515,10 @@
         <v>200</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="T17" s="15">
         <v>1</v>
@@ -2433,11 +2540,11 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="11" t="s">
         <v>101</v>
       </c>
@@ -2447,7 +2554,9 @@
       <c r="H18" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="J18" s="11" t="s">
         <v>105</v>
       </c>
@@ -2465,7 +2574,7 @@
         <v>18</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P18" s="11">
         <v>25</v>
@@ -2475,16 +2584,16 @@
         <v>450</v>
       </c>
       <c r="R18" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="T18" s="15">
         <v>1</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>48</v>
@@ -2500,13 +2609,13 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>99</v>
@@ -2514,7 +2623,9 @@
       <c r="H19" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="J19" s="11" t="s">
         <v>106</v>
       </c>
@@ -2532,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P19" s="11">
         <v>25</v>
@@ -2542,16 +2653,16 @@
         <v>450</v>
       </c>
       <c r="R19" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="T19" s="15">
         <v>1</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V19" s="11" t="s">
         <v>48</v>
@@ -2565,25 +2676,29 @@
       <c r="AA19" s="12"/>
     </row>
     <row r="20" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="11"/>
+      <c r="K20" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="L20" s="11">
         <v>2</v>
       </c>
@@ -2595,7 +2710,7 @@
         <v>8</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P20" s="11">
         <v>25</v>
@@ -2605,16 +2720,16 @@
         <v>200</v>
       </c>
       <c r="R20" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S20" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="T20" s="15">
         <v>1</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V20" s="11" t="s">
         <v>48</v>
@@ -2626,340 +2741,360 @@
         <v>109</v>
       </c>
       <c r="AA20" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="165" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="G21" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="52" t="s">
+      <c r="I21" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="I21" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="J21" s="52" t="s">
+      <c r="K21" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="K21" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="L21" s="52">
+      <c r="L21" s="28">
         <v>2</v>
       </c>
-      <c r="M21" s="52">
+      <c r="M21" s="28">
         <v>4</v>
       </c>
-      <c r="N21" s="52">
+      <c r="N21" s="28">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="O21" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="P21" s="52">
+      <c r="O21" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="P21" s="28">
         <v>25</v>
       </c>
-      <c r="Q21" s="52">
+      <c r="Q21" s="28">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="R21" s="52" t="s">
+      <c r="R21" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="T21" s="29">
+        <v>1</v>
+      </c>
+      <c r="U21" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="V21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="X21" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y21" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z21" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA21" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" s="28">
+        <v>2</v>
+      </c>
+      <c r="M22" s="28">
+        <v>1</v>
+      </c>
+      <c r="N22" s="28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="P22" s="28">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="28">
+        <f>+N22*P22</f>
+        <v>50</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="S22" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="T21" s="53">
+      <c r="T22" s="29">
         <v>1</v>
       </c>
-      <c r="U21" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="V21" s="52" t="s">
+      <c r="U22" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="V22" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="W21" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="X21" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y21" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z21" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA21" s="54" t="s">
-        <v>166</v>
-      </c>
+      <c r="W22" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="X22" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y22" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z22" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA22" s="30"/>
     </row>
-    <row r="22" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="13" t="s">
+    <row r="23" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="13" t="s">
+      <c r="I23" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13">
+      <c r="K23" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" s="13">
         <v>2</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M23" s="13">
         <v>4</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N23" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="O22" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P22" s="13">
+      <c r="O23" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23" s="13">
         <v>10</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q23" s="13">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="R22" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="S22" s="13" t="s">
+      <c r="R23" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="16">
+      <c r="S23" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="T23" s="16">
         <v>1</v>
       </c>
-      <c r="U22" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="V22" s="13" t="s">
+      <c r="U23" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="V23" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13" t="s">
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA23" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="AA22" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="L23" s="17">
-        <v>6</v>
-      </c>
-      <c r="M23" s="17">
-        <v>2</v>
-      </c>
-      <c r="N23" s="17">
-        <f t="shared" ref="N23:N24" si="4">L23*M23</f>
-        <v>12</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="P23" s="17">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="17">
-        <f t="shared" ref="Q23:Q24" si="5">+N23*P23</f>
-        <v>300</v>
-      </c>
-      <c r="R23" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="S23" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="T23" s="18">
-        <v>1</v>
-      </c>
-      <c r="U23" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="V23" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA23" s="19" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="11" t="s">
+      <c r="A24" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="17">
+        <v>6</v>
+      </c>
+      <c r="M24" s="17">
+        <v>2</v>
+      </c>
+      <c r="N24" s="17">
+        <f t="shared" ref="N24:N25" si="4">L24*M24</f>
+        <v>12</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="17">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="17">
+        <f t="shared" ref="Q24:Q25" si="5">+N24*P24</f>
+        <v>300</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="T24" s="18">
+        <v>1</v>
+      </c>
+      <c r="U24" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA24" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11" t="s">
+      <c r="I25" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L25" s="11">
         <v>2</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M25" s="11">
         <v>4</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N25" s="11">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O24" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P24" s="11">
+      <c r="O25" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="11">
         <v>25</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q25" s="11">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S25" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="S24" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="T24" s="15">
-        <v>1</v>
-      </c>
-      <c r="U24" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA24" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="11">
-        <v>2</v>
-      </c>
-      <c r="M25" s="11">
-        <v>4</v>
-      </c>
-      <c r="N25" s="11">
-        <f>L25*M25</f>
-        <v>8</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P25" s="11">
-        <v>60</v>
-      </c>
-      <c r="Q25" s="11">
-        <f>+N25*P25</f>
-        <v>480</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="S25" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="T25" s="15">
         <v>1</v>
       </c>
       <c r="U25" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="V25" s="11" t="s">
         <v>48</v>
@@ -2968,31 +3103,35 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="11" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="K26" s="11" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="L26" s="11">
         <v>2</v>
@@ -3001,30 +3140,30 @@
         <v>4</v>
       </c>
       <c r="N26" s="11">
-        <f t="shared" ref="N26:N32" si="6">L26*M26</f>
+        <f>L26*M26</f>
         <v>8</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P26" s="11">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="Q26" s="11">
         <f>+N26*P26</f>
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T26" s="15">
         <v>1</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="V26" s="11" t="s">
         <v>48</v>
@@ -3032,31 +3171,37 @@
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
+      <c r="Z26" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="AA26" s="12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="29"/>
+    <row r="27" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="55"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="11" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="J27" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K27" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="L27" s="11">
         <v>2</v>
       </c>
@@ -3064,30 +3209,30 @@
         <v>4</v>
       </c>
       <c r="N27" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N27:N34" si="6">L27*M27</f>
         <v>8</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P27" s="11">
         <v>10</v>
       </c>
       <c r="Q27" s="11">
-        <f t="shared" ref="Q27:Q32" si="7">+N27*P27</f>
+        <f>+N27*P27</f>
         <v>80</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T27" s="15">
         <v>1</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="V27" s="11" t="s">
         <v>48</v>
@@ -3095,33 +3240,35 @@
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
-      <c r="Z27" s="11" t="s">
-        <v>119</v>
-      </c>
+      <c r="Z27" s="11"/>
       <c r="AA27" s="12" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="11"/>
+        <v>116</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="J28" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="L28" s="11">
         <v>2</v>
       </c>
@@ -3133,17 +3280,17 @@
         <v>8</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P28" s="11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="11">
-        <f t="shared" si="7"/>
-        <v>200</v>
+        <f t="shared" ref="Q28:Q34" si="7">+N28*P28</f>
+        <v>80</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="S28" s="11" t="s">
         <v>123</v>
@@ -3161,32 +3308,36 @@
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AA28" s="12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="29"/>
+    <row r="29" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="55"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="11" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="J29" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K29" s="11"/>
+        <v>112</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="L29" s="11">
         <v>2</v>
       </c>
@@ -3198,7 +3349,7 @@
         <v>8</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P29" s="11">
         <v>25</v>
@@ -3208,48 +3359,54 @@
         <v>200</v>
       </c>
       <c r="R29" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="S29" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="T29" s="15">
         <v>1</v>
       </c>
       <c r="U29" s="11" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="V29" s="11" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
+      <c r="Z29" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="AA29" s="12" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="29"/>
+    <row r="30" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="55"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="I30" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="J30" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K30" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="L30" s="11">
         <v>2</v>
       </c>
@@ -3261,20 +3418,20 @@
         <v>8</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P30" s="11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Q30" s="11">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T30" s="15">
         <v>1</v>
@@ -3288,311 +3445,327 @@
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
-      <c r="Z30" s="11" t="s">
-        <v>145</v>
-      </c>
+      <c r="Z30" s="11"/>
       <c r="AA30" s="12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="I31" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="J31" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="K31" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="L31" s="52">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="L31" s="11">
         <v>2</v>
       </c>
-      <c r="M31" s="52">
+      <c r="M31" s="11">
         <v>4</v>
       </c>
-      <c r="N31" s="52">
+      <c r="N31" s="11">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="O31" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="P31" s="52">
+      <c r="O31" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P31" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="11">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="T31" s="15">
+        <v>1</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA31" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="L32" s="28">
+        <v>2</v>
+      </c>
+      <c r="M32" s="28">
+        <v>4</v>
+      </c>
+      <c r="N32" s="28">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="O32" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="P32" s="28">
         <v>25</v>
       </c>
-      <c r="Q31" s="52">
+      <c r="Q32" s="28">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="R31" s="52" t="s">
+      <c r="R32" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="S32" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="S31" s="11" t="s">
+      <c r="T32" s="29">
+        <v>1</v>
+      </c>
+      <c r="U32" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="V32" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="W32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="X32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z32" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA32" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="L33" s="28">
+        <v>2</v>
+      </c>
+      <c r="M33" s="28">
+        <v>1</v>
+      </c>
+      <c r="N33" s="28">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O33" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="P33" s="28">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="28">
+        <f>+N33*P33</f>
+        <v>50</v>
+      </c>
+      <c r="R33" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="S33" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="T31" s="53">
+      <c r="T33" s="29">
         <v>1</v>
       </c>
-      <c r="U31" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="V31" s="52" t="s">
+      <c r="U33" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="V33" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="W31" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="X31" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y31" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z31" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA31" s="54" t="s">
-        <v>166</v>
-      </c>
+      <c r="W33" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="X33" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y33" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z33" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA33" s="30"/>
     </row>
-    <row r="32" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="13" t="s">
+    <row r="34" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="57"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="H34" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13">
+      <c r="J34" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13">
         <v>2</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M34" s="13">
         <v>4</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N34" s="13">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="O32" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P32" s="13">
+      <c r="O34" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P34" s="13">
         <v>25</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q34" s="13">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="R32" s="13" t="s">
+      <c r="R34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S34" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="S32" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="T32" s="16">
+      <c r="T34" s="16">
         <v>1</v>
       </c>
-      <c r="U32" s="13" t="s">
+      <c r="U34" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="V32" s="13" t="s">
+      <c r="V34" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA32" s="14"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA34" s="14"/>
     </row>
-    <row r="33" spans="1:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+    <row r="35" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="C35" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="D35" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="E35" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K35" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="E33" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="L33" s="21">
-        <v>2</v>
-      </c>
-      <c r="M33" s="21">
-        <v>4</v>
-      </c>
-      <c r="N33" s="21">
-        <f t="shared" ref="N33:N38" si="8">L33*M33</f>
-        <v>8</v>
-      </c>
-      <c r="O33" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="P33" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="21">
-        <f>+N33*P33</f>
-        <v>80</v>
-      </c>
-      <c r="R33" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="S33" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="T33" s="22">
-        <v>1</v>
-      </c>
-      <c r="U33" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="V33" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="135" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21">
-        <v>2</v>
-      </c>
-      <c r="M34" s="21">
-        <v>4</v>
-      </c>
-      <c r="N34" s="21">
-        <f t="shared" ref="N34:N35" si="9">L34*M34</f>
-        <v>8</v>
-      </c>
-      <c r="O34" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="P34" s="21">
-        <v>25</v>
-      </c>
-      <c r="Q34" s="21">
-        <f t="shared" ref="Q34:Q35" si="10">+N34*P34</f>
-        <v>200</v>
-      </c>
-      <c r="R34" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="S34" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="T34" s="22">
-        <v>1</v>
-      </c>
-      <c r="U34" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="V34" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="K35" s="21"/>
       <c r="L35" s="21">
         <v>2</v>
       </c>
@@ -3600,21 +3773,21 @@
         <v>4</v>
       </c>
       <c r="N35" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N35:N41" si="8">L35*M35</f>
         <v>8</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P35" s="21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Q35" s="21">
-        <f t="shared" si="10"/>
-        <v>200</v>
+        <f>+N35*P35</f>
+        <v>80</v>
       </c>
       <c r="R35" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="S35" s="21" t="s">
         <v>123</v>
@@ -3623,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="U35" s="21" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V35" s="21" t="s">
         <v>48</v>
@@ -3631,35 +3804,35 @@
       <c r="W35" s="21"/>
       <c r="X35" s="21"/>
       <c r="Y35" s="21"/>
-      <c r="Z35" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA35" s="23"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="23" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="36" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33" t="s">
+    <row r="36" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+      <c r="A36" s="47"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E36" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="I36" s="21"/>
       <c r="J36" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K36" s="21"/>
+        <v>94</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="L36" s="21">
         <v>2</v>
       </c>
@@ -3667,193 +3840,419 @@
         <v>4</v>
       </c>
       <c r="N36" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N36:N37" si="9">L36*M36</f>
         <v>8</v>
       </c>
       <c r="O36" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="P36" s="21">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="21">
+        <f t="shared" ref="Q36:Q37" si="10">+N36*P36</f>
+        <v>200</v>
+      </c>
+      <c r="R36" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="P36" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="21">
-        <f t="shared" ref="Q36:Q38" si="11">+N36*P36</f>
-        <v>80</v>
-      </c>
-      <c r="R36" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="S36" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T36" s="22">
         <v>1</v>
       </c>
       <c r="U36" s="21" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="V36" s="21" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="W36" s="21"/>
       <c r="X36" s="21"/>
       <c r="Y36" s="21"/>
-      <c r="Z36" s="21" t="s">
-        <v>119</v>
-      </c>
+      <c r="Z36" s="21"/>
       <c r="AA36" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="47"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="L37" s="21">
+        <v>2</v>
+      </c>
+      <c r="M37" s="21">
+        <v>4</v>
+      </c>
+      <c r="N37" s="21">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="O37" s="21" t="s">
         <v>120</v>
       </c>
+      <c r="P37" s="21">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="21">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="S37" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="T37" s="22">
+        <v>1</v>
+      </c>
+      <c r="U37" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="V37" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA37" s="23"/>
     </row>
-    <row r="37" spans="1:27" ht="165" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="H37" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="I37" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="J37" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="K37" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="L37" s="52">
+    <row r="38" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="47"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="L38" s="21">
         <v>2</v>
       </c>
-      <c r="M37" s="52">
+      <c r="M38" s="21">
         <v>4</v>
       </c>
-      <c r="N37" s="52">
+      <c r="N38" s="21">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="O37" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="P37" s="52">
+      <c r="O38" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="P38" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="21">
+        <f t="shared" ref="Q38:Q41" si="11">+N38*P38</f>
+        <v>80</v>
+      </c>
+      <c r="R38" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="S38" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="T38" s="22">
+        <v>1</v>
+      </c>
+      <c r="U38" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="V38" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA38" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+      <c r="A39" s="48"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J39" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="K39" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="L39" s="28">
+        <v>2</v>
+      </c>
+      <c r="M39" s="28">
+        <v>4</v>
+      </c>
+      <c r="N39" s="28">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="O39" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="P39" s="28">
         <v>25</v>
       </c>
-      <c r="Q37" s="52">
+      <c r="Q39" s="28">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="R37" s="52" t="s">
+      <c r="R39" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="S39" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="S37" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="T37" s="53">
+      <c r="T39" s="29">
         <v>1</v>
       </c>
-      <c r="U37" s="52" t="s">
+      <c r="U39" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="V39" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="W39" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="X39" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y39" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z39" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="V37" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="W37" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="X37" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y37" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z37" s="52" t="s">
+      <c r="AA39" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="AA37" s="54" t="s">
+    </row>
+    <row r="40" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="48"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="21" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24">
+      <c r="G40" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L40" s="21">
         <v>2</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M40" s="21">
         <v>4</v>
       </c>
-      <c r="N38" s="24">
+      <c r="N40" s="21">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="O38" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="P38" s="24">
+      <c r="O40" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="P40" s="21">
         <v>25</v>
       </c>
-      <c r="Q38" s="24">
+      <c r="Q40" s="21">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="R38" s="24" t="s">
+      <c r="R40" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="S40" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="S38" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="T38" s="25">
+      <c r="T40" s="27">
         <v>1</v>
       </c>
-      <c r="U38" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="V38" s="24" t="s">
+      <c r="U40" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="V40" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA40" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="49"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="L41" s="24">
+        <v>2</v>
+      </c>
+      <c r="M41" s="24">
+        <v>4</v>
+      </c>
+      <c r="N41" s="24">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="O41" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="P41" s="24">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="24">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="R41" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="S41" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="T41" s="25">
+        <v>1</v>
+      </c>
+      <c r="U41" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="V41" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA38" s="26" t="s">
-        <v>114</v>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA41" s="26" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A9:AA41"/>
   <mergeCells count="41">
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E23:E32"/>
-    <mergeCell ref="A10:A22"/>
-    <mergeCell ref="B10:B22"/>
-    <mergeCell ref="C10:C22"/>
-    <mergeCell ref="D10:D22"/>
-    <mergeCell ref="E10:E22"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="C24:C34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="D24:D34"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:AA8"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="Z3:AA3"/>
@@ -3867,45 +4266,31 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="T5:U5"/>
     <mergeCell ref="V5:AA5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="C23:C32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="D23:D32"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E24:E34"/>
+    <mergeCell ref="A10:A23"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="C10:C23"/>
+    <mergeCell ref="D10:D23"/>
+    <mergeCell ref="E10:E23"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L31 L10:L29 L33:L34 L36:L38" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L32:L33 L38:L41 L35:L36 L10:L30">
       <formula1>"10, 6, 2, 0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M31 M10:M29 M33:M34 M36:M38" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M32:M33 M38:M41 M35:M36 M10:M30">
       <formula1>"4, 3, 2, 1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P31 P10:P29 P33:P34 P36:P38" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P32:P33 P38:P41 P35:P36 P10:P30">
       <formula1>"100, 60, 25, 10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10:S29 S31:S38" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S32:S41 S10:S30">
       <formula1>"No Aceptable, Aceptable con control especifico, Mejorable, Aceptable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O38" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O41">
       <formula1>"Muy Alto, Alto, Medio,Bajo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10:R38" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10:R41">
       <formula1>"I, II, III, IV"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3916,7 +4301,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{4DC6E855-C3EA-4D5F-874B-8116C8A3A597}">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{4DC6E855-C3EA-4D5F-874B-8116C8A3A597}">
             <xm:f>NOT(ISERROR(SEARCH(Hoja1!$A$1,S9)))</xm:f>
             <xm:f>Hoja1!$A$1</xm:f>
             <x14:dxf>
@@ -3931,10 +4316,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>S9:S30 S32:S36 S38:S93</xm:sqref>
+          <xm:sqref>S9:S21 S34:S38 S41:S96 S23:S31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{DE88D9D8-356C-4D66-A63D-B253901AAC65}">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{DE88D9D8-356C-4D66-A63D-B253901AAC65}">
             <xm:f>NOT(ISERROR(SEARCH(Hoja1!$C$1,S10)))</xm:f>
             <xm:f>Hoja1!$C$1</xm:f>
             <x14:dxf>
@@ -3949,7 +4334,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{9B47E2CF-D8EC-499C-AF99-E461E56131AD}">
+          <x14:cfRule type="endsWith" priority="14" operator="endsWith" id="{9B47E2CF-D8EC-499C-AF99-E461E56131AD}">
             <xm:f>RIGHT(S10,LEN(Hoja1!$B$1))=Hoja1!$B$1</xm:f>
             <xm:f>Hoja1!$B$1</xm:f>
             <x14:dxf>
@@ -3964,11 +4349,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>S10:S30 S32:S36 S38:S115</xm:sqref>
+          <xm:sqref>S10:S21 S34:S38 S41:S118 S23:S31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{DC7847DE-A2D2-4934-8281-C6E0BF5ACE31}">
-            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$A$1,S31)))</xm:f>
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{DC7847DE-A2D2-4934-8281-C6E0BF5ACE31}">
+            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$A$1,S32)))</xm:f>
             <xm:f>Hoja1!$A$1</xm:f>
             <x14:dxf>
               <font>
@@ -3982,11 +4367,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>S31</xm:sqref>
+          <xm:sqref>S32:S33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{4059B859-EA40-475B-A8AD-0493CC43BBFD}">
-            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$C$1,S31)))</xm:f>
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{4059B859-EA40-475B-A8AD-0493CC43BBFD}">
+            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$C$1,S32)))</xm:f>
             <xm:f>Hoja1!$C$1</xm:f>
             <x14:dxf>
               <font>
@@ -4000,8 +4385,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="5" operator="endsWith" id="{5499E0C4-46FF-4A90-84A5-261BDE9A018B}">
-            <xm:f>RIGHT(S31,LEN(Hoja1!$B$1))=Hoja1!$B$1</xm:f>
+          <x14:cfRule type="endsWith" priority="11" operator="endsWith" id="{5499E0C4-46FF-4A90-84A5-261BDE9A018B}">
+            <xm:f>RIGHT(S32,LEN(Hoja1!$B$1))=Hoja1!$B$1</xm:f>
             <xm:f>Hoja1!$B$1</xm:f>
             <x14:dxf>
               <font>
@@ -4015,11 +4400,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>S31</xm:sqref>
+          <xm:sqref>S32:S33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{A8BFA9E0-0BB9-4AF8-B1AC-CA34AF6941D4}">
-            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$A$1,S37)))</xm:f>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{A8BFA9E0-0BB9-4AF8-B1AC-CA34AF6941D4}">
+            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$A$1,S39)))</xm:f>
             <xm:f>Hoja1!$A$1</xm:f>
             <x14:dxf>
               <font>
@@ -4033,11 +4418,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>S37</xm:sqref>
+          <xm:sqref>S39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{E8DC6BE2-8B1A-4405-8D30-2201AD77683D}">
-            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$C$1,S37)))</xm:f>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{E8DC6BE2-8B1A-4405-8D30-2201AD77683D}">
+            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$C$1,S39)))</xm:f>
             <xm:f>Hoja1!$C$1</xm:f>
             <x14:dxf>
               <font>
@@ -4051,8 +4436,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="endsWith" priority="2" operator="endsWith" id="{10110C2B-3D75-41F8-BD2F-1F78A6F91C50}">
-            <xm:f>RIGHT(S37,LEN(Hoja1!$B$1))=Hoja1!$B$1</xm:f>
+          <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{10110C2B-3D75-41F8-BD2F-1F78A6F91C50}">
+            <xm:f>RIGHT(S39,LEN(Hoja1!$B$1))=Hoja1!$B$1</xm:f>
             <xm:f>Hoja1!$B$1</xm:f>
             <x14:dxf>
               <font>
@@ -4066,7 +4451,109 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>S37</xm:sqref>
+          <xm:sqref>S39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{1090B7B3-7233-4F0E-9B2B-81AA45196E85}">
+            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$A$1,S40)))</xm:f>
+            <xm:f>Hoja1!$A$1</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>S40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{0D8E79E5-D65D-4243-A7E3-9C838BAA0001}">
+            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$C$1,S40)))</xm:f>
+            <xm:f>Hoja1!$C$1</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="5" operator="endsWith" id="{F99BF0B8-3F57-4989-B74D-2F3AE8745D77}">
+            <xm:f>RIGHT(S40,LEN(Hoja1!$B$1))=Hoja1!$B$1</xm:f>
+            <xm:f>Hoja1!$B$1</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>S40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{5999902D-F2AC-4CE1-B2B2-3F67E7259BD7}">
+            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$A$1,S22)))</xm:f>
+            <xm:f>Hoja1!$A$1</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC00000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>S22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{271A9FE5-6C93-44B3-BBAB-E068F7EC9E3B}">
+            <xm:f>NOT(ISERROR(SEARCH(Hoja1!$C$1,S22)))</xm:f>
+            <xm:f>Hoja1!$C$1</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="endsWith" priority="2" operator="endsWith" id="{E6ED7090-35BE-4F69-A746-0174DB5C44AE}">
+            <xm:f>RIGHT(S22,LEN(Hoja1!$B$1))=Hoja1!$B$1</xm:f>
+            <xm:f>Hoja1!$B$1</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>S22</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4075,7 +4562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4086,13 +4573,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
